--- a/ChucNang.xlsx
+++ b/ChucNang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Danh mục</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>chua xem dc van ban</t>
+  </si>
+  <si>
+    <t>luu chưa dc</t>
   </si>
 </sst>
 </file>
@@ -357,18 +363,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D3"/>
+  <dimension ref="B1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="41.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -379,7 +387,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -390,9 +398,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/ChucNang.xlsx
+++ b/ChucNang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Danh mục</t>
   </si>
@@ -42,10 +42,82 @@
     <t>ok</t>
   </si>
   <si>
-    <t>chua xem dc van ban</t>
-  </si>
-  <si>
-    <t>luu chưa dc</t>
+    <t>chua xem dc van ban , ko add van ban nhung van luu</t>
+  </si>
+  <si>
+    <t>Quy định</t>
+  </si>
+  <si>
+    <t>Tieu chuan/ tieu chi</t>
+  </si>
+  <si>
+    <t>chuyen</t>
+  </si>
+  <si>
+    <t>Kế hoạch tự đánh giá</t>
+  </si>
+  <si>
+    <t>Sub chức năng</t>
+  </si>
+  <si>
+    <t>Thành viên tự đánh giá</t>
+  </si>
+  <si>
+    <t>Danh mục chức vụ</t>
+  </si>
+  <si>
+    <t>Danh mục nhiệm vụ</t>
+  </si>
+  <si>
+    <t>Danh mục thành viên</t>
+  </si>
+  <si>
+    <t>Nhóm đánh giá</t>
+  </si>
+  <si>
+    <t>Mục đích - phạm vi</t>
+  </si>
+  <si>
+    <t>Hội đồng tự đánh giá</t>
+  </si>
+  <si>
+    <t>Thành viên hội đồng</t>
+  </si>
+  <si>
+    <t>Nhóm load từ module khác</t>
+  </si>
+  <si>
+    <t>Nhóm thư ký + công tác load từ module khác</t>
+  </si>
+  <si>
+    <t>KeHoachNhomTDG</t>
+  </si>
+  <si>
+    <t>Kế hoạch nhóm tự đánh giá</t>
+  </si>
+  <si>
+    <t>có time chinh lai chi dep</t>
+  </si>
+  <si>
+    <t>Tập huấn nghiệp vụ TĐG</t>
+  </si>
+  <si>
+    <t>Nguồn lực - thời điểm</t>
+  </si>
+  <si>
+    <t>Nguồn lực - csvc - tài chính</t>
+  </si>
+  <si>
+    <t>Thời gian cung cấp</t>
+  </si>
+  <si>
+    <t>chưa</t>
+  </si>
+  <si>
+    <t>Minh chứng</t>
+  </si>
+  <si>
+    <t>Thời gian biểu</t>
   </si>
 </sst>
 </file>
@@ -56,7 +128,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -363,20 +435,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E3"/>
+  <dimension ref="B1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="19.75" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="41.25" customWidth="1"/>
+    <col min="2" max="2" width="20.08984375" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="25.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="51.90625" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" customWidth="1"/>
+    <col min="8" max="8" width="25.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -384,29 +460,153 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ChucNang.xlsx
+++ b/ChucNang.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Danh mục</t>
   </si>
@@ -118,6 +118,15 @@
   </si>
   <si>
     <t>Thời gian biểu</t>
+  </si>
+  <si>
+    <t>cần order lai noi dung</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu nhà trường</t>
+  </si>
+  <si>
+    <t>Thông tin chung</t>
   </si>
 </sst>
 </file>
@@ -435,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H21"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,7 +581,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -580,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -591,7 +600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="D19" t="s">
         <v>29</v>
       </c>
@@ -599,14 +608,31 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
         <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
